--- a/src/main/resources/BCC_DataSheet1.xlsx
+++ b/src/main/resources/BCC_DataSheet1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagarjuna/Desktop/Inteli/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F61F16-8F5B-9F41-8F2D-5FA5EC5E0B38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04CA332-172D-CE4D-9695-C784139A17C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{9DA725DE-305A-3B44-92E6-554A81D29FBC}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="117">
   <si>
     <t>ScenarioName</t>
   </si>
@@ -253,24 +253,6 @@
     <t>2|2 - Above Average</t>
   </si>
   <si>
-    <t xml:space="preserve"> "first_name":"DOROTHY",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "last_name":"ARMBRUST",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "address_line1":"16735 LEW ALLEN CIR",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "city":"RIVERSIDE",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "state":"CA",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "zip":"92518"</t>
-  </si>
-  <si>
     <t>DOROTHY</t>
   </si>
   <si>
@@ -284,13 +266,130 @@
   </si>
   <si>
     <t>2|1 - Above Average</t>
+  </si>
+  <si>
+    <t>3|6 - Average</t>
+  </si>
+  <si>
+    <t>Claiborne</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
+    <t>4523 Eden St</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>New Orleans</t>
+  </si>
+  <si>
+    <t>3|5 - Average</t>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
+    <t>Cook</t>
+  </si>
+  <si>
+    <t>1303 Cherry Ln</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Beaver Dam</t>
+  </si>
+  <si>
+    <t>Hughes</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>2204 Fillmore St</t>
+  </si>
+  <si>
+    <t>Fort Wayne</t>
+  </si>
+  <si>
+    <t>3|4 - Average</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Cottonham</t>
+  </si>
+  <si>
+    <t>Lafayette</t>
+  </si>
+  <si>
+    <t>3|3 - Average</t>
+  </si>
+  <si>
+    <t>205 Sandalwood Dr</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>Prout</t>
+  </si>
+  <si>
+    <t>300 Prospect Ave</t>
+  </si>
+  <si>
+    <t>Hackensack</t>
+  </si>
+  <si>
+    <t>3|2 - Average</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Bartell</t>
+  </si>
+  <si>
+    <t>300 Highland Dr</t>
+  </si>
+  <si>
+    <t>Rantoul</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>3|1 - Average</t>
+  </si>
+  <si>
+    <t>Agar</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>53183 Key Bellaire Rd</t>
+  </si>
+  <si>
+    <t>Bellaire</t>
+  </si>
+  <si>
+    <t>4|0 - Fair</t>
+  </si>
+  <si>
+    <t>OH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -309,12 +408,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0451A5"/>
-      <name val="Menlo"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -337,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -353,7 +446,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1ADE38-9D11-FD4E-94FF-75BED71C2AE2}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -681,10 +773,10 @@
     <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="2"/>
-    <col min="6" max="6" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="2"/>
-    <col min="9" max="9" width="28.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -748,7 +840,7 @@
       <c r="I2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="4">
         <v>10</v>
       </c>
     </row>
@@ -780,7 +872,7 @@
       <c r="I3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <v>10</v>
       </c>
     </row>
@@ -812,7 +904,7 @@
       <c r="I4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <v>11</v>
       </c>
     </row>
@@ -844,7 +936,7 @@
       <c r="I5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <v>12</v>
       </c>
     </row>
@@ -876,7 +968,7 @@
       <c r="I6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4">
         <v>13</v>
       </c>
     </row>
@@ -908,7 +1000,7 @@
       <c r="I7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>14</v>
       </c>
     </row>
@@ -940,71 +1032,71 @@
       <c r="I8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="B9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="5">
         <v>92518</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="F9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="2">
-        <v>200</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="H9" s="5">
+        <v>200</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="5">
         <v>49685</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="2">
-        <v>200</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="H10" s="5">
+        <v>200</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="4">
         <v>22</v>
       </c>
     </row>
@@ -1036,72 +1128,296 @@
       <c r="I11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="5">
         <v>29920</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="2">
-        <v>200</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="H12" s="5">
+        <v>200</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="5">
         <v>37923</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="2">
-        <v>200</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="H13" s="5">
+        <v>200</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="4">
         <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="5">
+        <v>61866</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="5">
+        <v>200</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="5">
+        <v>7601</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="5">
+        <v>200</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="5">
+        <v>70507</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="5">
+        <v>200</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="5">
+        <v>46802</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="5">
+        <v>200</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J17" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="5">
+        <v>42320</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="5">
+        <v>200</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="5">
+        <v>70125</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="5">
+        <v>200</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="5">
+        <v>43906</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" s="5">
+        <v>200</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J20" s="4">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1115,7 +1431,7 @@
   <dimension ref="E6:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1139,34 +1455,19 @@
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="5:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="E11" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="5:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="E12" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="5:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="E13" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E14" t="s">
-        <v>76</v>
-      </c>
+      <c r="E13" s="3"/>
     </row>
     <row r="15" spans="5:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="E15" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="5:5" ht="17" x14ac:dyDescent="0.25">
-      <c r="E16" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="E16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
